--- a/Samples/TC_SearchForm.xlsx
+++ b/Samples/TC_SearchForm.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="510" yWindow="1065" windowWidth="8295" windowHeight="8895" activeTab="2"/>
+    <workbookView xWindow="510" yWindow="1515" windowWidth="8295" windowHeight="8895" tabRatio="692" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
-    <sheet name="Age Filter" sheetId="3" r:id="rId2"/>
-    <sheet name="Page UI" sheetId="6" r:id="rId3"/>
-    <sheet name="Gender Options" sheetId="4" r:id="rId4"/>
+    <sheet name="Gender Options" sheetId="4" r:id="rId2"/>
+    <sheet name="Age Filter" sheetId="3" r:id="rId3"/>
+    <sheet name="Page UI" sheetId="6" r:id="rId4"/>
     <sheet name="Subscription Options" sheetId="5" r:id="rId5"/>
     <sheet name="Town Filter" sheetId="2" r:id="rId6"/>
+    <sheet name="Country Filter" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="101">
   <si>
     <t>Steps</t>
   </si>
@@ -47,28 +48,15 @@
     <t>TC02</t>
   </si>
   <si>
-    <t>Search Field - Invalid Input - Length Below 3 Characters</t>
-  </si>
-  <si>
     <t>Checking the search form with value between 3 and 50 characters.</t>
   </si>
   <si>
-    <t>1. Navigate to {base url}
-2. In Search input field enter searching parameter with length between 3 and 50 characters. Using of any characters and spaces.
-3. Fill rest of the form with valid data
-4. Press Button Search.</t>
-  </si>
-  <si>
     <t>Checking the form with Search parameter value below 3 characters.</t>
   </si>
   <si>
     <t>The search value should be between 3 and 50 chars long!</t>
   </si>
   <si>
-    <t xml:space="preserve">Search Field - Invalid Input - Length Above 50 Chars
-</t>
-  </si>
-  <si>
     <t>TC03</t>
   </si>
   <si>
@@ -79,9 +67,6 @@
   </si>
   <si>
     <t>TC04</t>
-  </si>
-  <si>
-    <t>Search Field - Invalid Input - javascript attempt</t>
   </si>
   <si>
     <t>Checking for cross-site scripting attacks.</t>
@@ -95,28 +80,6 @@
   </si>
   <si>
     <t>Valid Input - Length between 4 and 20 chars</t>
-  </si>
-  <si>
-    <t>Valid Input</t>
-  </si>
-  <si>
-    <t>1. Navigate to {base url}
-2. In Search input field enter searching parameter with length below 3 characters. Using any characters and spaces.
-3. Fill rest of the form with valid data
-4. Press Button Search</t>
-  </si>
-  <si>
-    <t>1. Navigate to {base url}
-2. In Search input field enter searching parameter with length above 50 characters. Using of any characters and spaces.
-3. Fill rest of the form with valid data
-4. Press Button Search
-Expected result</t>
-  </si>
-  <si>
-    <t>1. Navigate to {base url}
-2. In Search input field enter searching parameter with length between 3 and 50 characters. Example: &lt;script&gt;alert(‘Aloha Fluffy!’)&lt;/script&gt;
-3. Fill rest of the form with valid data
-4. Press Button Search</t>
   </si>
   <si>
     <t>1. Navigate to {base url}
@@ -168,6 +131,267 @@
 2. In Town input field enter searching parameter consisting of special symbols - @#$%^&amp;&amp;*(!)_+=
 3. 3. Fill rest of the form with valid data
 4. Press Button Search</t>
+  </si>
+  <si>
+    <t>Verify form background</t>
+  </si>
+  <si>
+    <t>Background of the form should be styled with gray background</t>
+  </si>
+  <si>
+    <t>Form should have gray background (color: #333)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All input fields should have blue outline border </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to {base url}
+2. Check out the form background
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to {base url}
+2. Click on Search input field
+3. Click on  Age selection drop down
+4. Click on Country selection drop box
+5. Click on Town input field
+</t>
+  </si>
+  <si>
+    <t>Verify input outlines</t>
+  </si>
+  <si>
+    <t>When clicked all inputs/dropdowns should have blue outside border (outline, color: rgba(81, 203, 238, 1))</t>
+  </si>
+  <si>
+    <t>Invalid Input - javascript attempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Input - Length Above 50 Chars
+</t>
+  </si>
+  <si>
+    <t>Invalid Input - Length Below 3 Characters</t>
+  </si>
+  <si>
+    <t>Valid Input form displays the alert</t>
+  </si>
+  <si>
+    <t>Verify Search field is required</t>
+  </si>
+  <si>
+    <t>The form should'nt be sent, if search input is empty</t>
+  </si>
+  <si>
+    <t>1. Navigate to {base url}
+2. Leave Search input empty
+3. Fill rest of the form with valid data
+4. Press Search button</t>
+  </si>
+  <si>
+    <t>1. Navigate to {base url}
+2. In Search input field enter searching parameter with length between 3 and 50 characters. Using of any characters and spaces.
+3. Fill rest of the form with valid data
+4. Press Search button.</t>
+  </si>
+  <si>
+    <t>1. Navigate to {base url}
+2. In Search input field enter searching parameter with length below 3 characters. Using any characters and spaces.
+3. Fill rest of the form with valid data
+4. Press Search button</t>
+  </si>
+  <si>
+    <t>1. Navigate to {base url}
+2. In Search input field enter searching parameter with length between 3 and 50 characters. Example: &lt;script&gt;alert(‘Aloha Fluffy!’)&lt;/script&gt;
+3. Fill rest of the form with valid data
+4. Press Search button</t>
+  </si>
+  <si>
+    <t>Warning windows should be displayed stating "Please fill out this field"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify warning messages color </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All warning messages should have orange color </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to {base url}
+2. Enter two random leters in Search input
+3. Unfocus the input 
+4. Enter two random letters in Town input
+5. Unfocus the input 
+</t>
+  </si>
+  <si>
+    <t>When input I sunfocused, warning should appear, warning color should be orange (#F5E79E), font color should be  darker orange (#8A6D3B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Gender checkboxes are unselected when page is loaded
+</t>
+  </si>
+  <si>
+    <t>Options for gender choice should be unselected when page is loaded</t>
+  </si>
+  <si>
+    <t>1. Navigate to {base url}
+2. Look at gender options checkboxes</t>
+  </si>
+  <si>
+    <t>None of the options should be selected from the start.</t>
+  </si>
+  <si>
+    <t>1. Navigate to {baseurl}
+2. From gender checkboxes select "Female"
+3. Fill rest of the form with valid data 
+4. Click search button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alert should be shown, displaying the data, make sure that gender is set "Female" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC03 </t>
+  </si>
+  <si>
+    <t>Verify "Male" is selected and send to the alert</t>
+  </si>
+  <si>
+    <t>Verify "Female" is selected and send to the alert</t>
+  </si>
+  <si>
+    <t>1. Navigate to {baseurl}
+2. From gender checkboxes select "Male"
+3. Fill rest of the form with valid data 
+4. Click search button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alert should be shown, displaying the data, make sure that gender is set "Male" </t>
+  </si>
+  <si>
+    <t>When "Female" option is selected it should be displayed on alert dialog</t>
+  </si>
+  <si>
+    <t>When "Male" option is selected it should be displayed on alert dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Subscription checkboxes are unselected when page is loaded
+</t>
+  </si>
+  <si>
+    <t>Options for subscription options should be cleared when page is loaded</t>
+  </si>
+  <si>
+    <t>1. Navigate to {base url}
+2. Look at Subscription options checkboxes</t>
+  </si>
+  <si>
+    <t>Verify "Subscriber" is selected and send to the alert</t>
+  </si>
+  <si>
+    <t>When "Subscriber" option is selected it should be displayed on alert dialog</t>
+  </si>
+  <si>
+    <t>Verify "Non-Subscriber" is selected and send to the alert</t>
+  </si>
+  <si>
+    <t>When "Non-Subscriber" option is selected it should be displayed on alert dialog</t>
+  </si>
+  <si>
+    <t>1. Navigate to {baseurl}
+2. From gender checkboxes select "Subscriber"
+3. Fill rest of the form with valid data 
+4. Click search button</t>
+  </si>
+  <si>
+    <t>1. Navigate to {baseurl}
+2. From gender checkboxes select "Non-Subscriber"
+3. Fill rest of the form with valid data 
+4. Click search button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alert should be shown, displaying the data, make sure that gender is set "Subscriber" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alert should be shown, displaying the data, make sure that gender is set "Non-Subscriber" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC04 </t>
+  </si>
+  <si>
+    <t>Page should look exactly as it is on the picture</t>
+  </si>
+  <si>
+    <t>1. Navigate to {base url}
+2. Check out the page</t>
+  </si>
+  <si>
+    <t>Verify static page style</t>
+  </si>
+  <si>
+    <t>Page should look exactly like on the picture ( https://drive.google.com/file/d/0B5uKAxW9j6ezd29KYjZmTS1vUVE/view?usp=sharing )</t>
+  </si>
+  <si>
+    <t>1. Navigate to {base url}
+2. In Search input field enter searching parameter with length above 50 characters. Using of any characters and spaces.
+3. Fill rest of the form with valid data
+4. Press Search button</t>
+  </si>
+  <si>
+    <t>Verify default Age selection is set on 18 when the page is loaded</t>
+  </si>
+  <si>
+    <t>Options for age choice should be set on 18 when page is loaded</t>
+  </si>
+  <si>
+    <t>1. Navigate to {base url}
+2. Look at age selection</t>
+  </si>
+  <si>
+    <t>Option 18 should be selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify correct age is send to alert </t>
+  </si>
+  <si>
+    <t>Selected age should be properly send and displayed on the alert box</t>
+  </si>
+  <si>
+    <t>1. Navigate to {base url}
+2. From Age selection select 21
+3. Fill rest of the form with valid  data</t>
+  </si>
+  <si>
+    <t>Option Bulgaria should be selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alert should be shown, displaying the data, make sure that Country is set to "Sweden" </t>
+  </si>
+  <si>
+    <t>Verify default Country selection is set to "Bulgaria" when the page is loaded</t>
+  </si>
+  <si>
+    <t>Options for country choice should be set to "Bulgaria" when page is loaded</t>
+  </si>
+  <si>
+    <t>1. Navigate to {base url}
+2. Look at Country selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify correct "Country" is send to alert </t>
+  </si>
+  <si>
+    <t>Selected Country should be properly send and displayed on the alert box</t>
+  </si>
+  <si>
+    <t>1. Navigate to {base url}
+2. From Country selection select "Sweden"
+3. Fill rest of the form with valid  data</t>
+  </si>
+  <si>
+    <t>Warning window should appear stating "No Special Symbols and numbers are allowed!!!"</t>
   </si>
 </sst>
 </file>
@@ -238,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -253,6 +477,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,23 +782,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41" style="2" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -595,16 +820,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -612,56 +837,72 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="6"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -672,48 +913,361 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="53.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -722,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -757,16 +1311,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -774,50 +1328,50 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -828,4 +1382,77 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>